--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/training/training_act13d5_01_b.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/training/training_act13d5_01_b.xlsx
@@ -68,7 +68,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A drone? It doesn’t look like it’s equipped with any weapon modules?
+    <t xml:space="preserve">A drone? It doesn't look like it's equipped with any weapon modules?
 </t>
   </si>
   <si>
@@ -80,11 +80,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_mm")] That’s great, let me break them~ There must be tons of illegal goods in there~!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_flower")] I’ll be in charge of healing. Everyone, please watch out for the gloompincers’ claws!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_mm")] That's great, let me break them~ There must be tons of illegal goods in there~!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_flower")] I'll be in charge of healing. Everyone, please watch out for the gloompincers' claws!
 </t>
   </si>
   <si>
